--- a/Controller/ModuleController.xlsx
+++ b/Controller/ModuleController.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationFramework\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02158972-977A-43B2-929C-1577BA5BDC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9920E14-4142-4229-9FFF-705911ECE700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F544344D-4FDF-4DBC-A5DC-B64671B5EA40}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{F544344D-4FDF-4DBC-A5DC-B64671B5EA40}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_modules" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ModuleName</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>This module has work flows of NOP  module.</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4950D2C3-2B9C-459B-8CF5-65AB8F2BAA19}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>CONCATENATE("Controller_",SUBSTITUTE(A2," ",""),".xls")</f>
@@ -641,14 +647,36 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>CONCATENATE("Controller_",SUBSTITUTE(A4," ",""),".xls")</f>
+        <v>Controller_NOP.xls</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>CONCATENATE("TestData_",SUBSTITUTE(A4," ",""),".xlsx")</f>
+        <v>TestData_NOP.xlsx</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B3">
+  <conditionalFormatting sqref="B1:B4">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{54E30253-77D9-42A9-8C6A-98BDDC324408}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{54E30253-77D9-42A9-8C6A-98BDDC324408}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
